--- a/outputs-r202/o__Lachnospirales.xlsx
+++ b/outputs-r202/o__Lachnospirales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +582,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -634,6 +644,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -691,6 +706,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -748,6 +768,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -805,6 +830,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -862,6 +892,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -919,6 +954,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -976,6 +1016,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1033,6 +1078,11 @@
           <t>f__UBA1390</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>f__UBA1390</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1090,6 +1140,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1147,6 +1202,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1204,6 +1264,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1261,6 +1326,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1318,6 +1388,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1375,6 +1450,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1432,6 +1512,11 @@
           <t>f__UBA1390</t>
         </is>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>f__UBA1390</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1489,6 +1574,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1546,6 +1636,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1603,6 +1698,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1660,6 +1760,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1717,6 +1822,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1774,6 +1884,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1831,6 +1946,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1888,6 +2008,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1945,6 +2070,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2002,6 +2132,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2059,6 +2194,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2116,6 +2256,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2173,6 +2318,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2230,6 +2380,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2287,6 +2442,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2344,6 +2504,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2401,6 +2566,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2458,6 +2628,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2515,6 +2690,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2572,6 +2752,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2629,6 +2814,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2686,6 +2876,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2743,6 +2938,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2800,6 +3000,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2857,6 +3062,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2914,6 +3124,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2971,6 +3186,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3028,6 +3248,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3085,6 +3310,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3142,6 +3372,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3199,6 +3434,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3256,6 +3496,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3313,6 +3558,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3370,6 +3620,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3427,6 +3682,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3484,6 +3744,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3541,6 +3806,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3598,6 +3868,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3655,6 +3930,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3712,6 +3992,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3769,6 +4054,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3826,6 +4116,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3883,6 +4178,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3940,6 +4240,11 @@
           <t>f__WRBF01</t>
         </is>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>f__WRBF01</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3997,6 +4302,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -4054,6 +4364,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -4111,6 +4426,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -4168,6 +4488,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -4225,6 +4550,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -4282,6 +4612,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -4339,6 +4674,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -4396,6 +4736,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -4453,6 +4798,11 @@
           <t>f__WRBF01</t>
         </is>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>f__WRBF01</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -4510,6 +4860,11 @@
           <t>f__WRBF01</t>
         </is>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>f__WRBF01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -4567,6 +4922,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -4624,6 +4984,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4681,6 +5046,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4738,6 +5108,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -4795,6 +5170,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -4852,6 +5232,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4909,6 +5294,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -4966,6 +5356,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -5023,6 +5418,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -5080,6 +5480,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -5137,6 +5542,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -5194,6 +5604,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -5251,6 +5666,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -5308,6 +5728,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -5365,6 +5790,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -5418,6 +5848,11 @@
         <v>0.9924107178242125</v>
       </c>
       <c r="Q87" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
         <is>
           <t>f__Lachnospiraceae</t>
         </is>

--- a/outputs-r202/o__Lachnospirales.xlsx
+++ b/outputs-r202/o__Lachnospirales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,53 +777,53 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG034.fasta</t>
+          <t>RUG044.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06944908441654922</v>
+        <v>1.476200953253787e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07119319303486686</v>
+        <v>4.204663100927417e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06944744458423141</v>
+        <v>2.111198555997051e-13</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06944744458422483</v>
+        <v>2.220054341145251e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06944744458431849</v>
+        <v>7.627640786318441e-13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06944744458422497</v>
+        <v>2.220054341145251e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08900053705922717</v>
+        <v>0.9867011965971302</v>
       </c>
       <c r="I6" t="n">
-        <v>0.069447444584225</v>
+        <v>2.220054341145251e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0694474445842265</v>
+        <v>0.01325873764157274</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07502229259510669</v>
+        <v>2.377172611574106e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06944750687347219</v>
+        <v>9.538805757542024e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06944744458422493</v>
+        <v>2.220054341145251e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06944922003116642</v>
+        <v>5.155791616315476e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0703060538999354</v>
+        <v>2.831241701545106e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08900053705922717</v>
+        <v>0.9867011965971302</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -832,60 +832,60 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae(reject)</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG044.fasta</t>
+          <t>RUG066.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.476200953253787e-08</v>
+        <v>7.134565189152962e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>4.204663100927417e-06</v>
+        <v>1.207728873286909e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>2.111198555997051e-13</v>
+        <v>3.572571731411018e-08</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220054341145251e-14</v>
+        <v>2.220189268764093e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>7.627640786318441e-13</v>
+        <v>0.0003413684155578734</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220054341145251e-14</v>
+        <v>2.220189268764093e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9867011965971302</v>
+        <v>0.9972285167840703</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220054341145251e-14</v>
+        <v>2.220189268764093e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01325873764157274</v>
+        <v>1.871512743734983e-10</v>
       </c>
       <c r="K7" t="n">
-        <v>2.377172611574106e-06</v>
+        <v>0.000277146758308745</v>
       </c>
       <c r="L7" t="n">
-        <v>9.538805757542024e-10</v>
+        <v>5.156192378852283e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>2.220054341145251e-14</v>
+        <v>2.220189268764093e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>5.155791616315476e-06</v>
+        <v>1.344710048259418e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>2.831241701545106e-05</v>
+        <v>0.002028559070489961</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9867011965971302</v>
+        <v>0.9972285167840703</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -901,53 +901,53 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG055.fasta</t>
+          <t>RUG091.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.858188652851418e-05</v>
+        <v>1.588712675991652e-09</v>
       </c>
       <c r="C8" t="n">
-        <v>4.143428877186002e-06</v>
+        <v>2.084210581475889e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>4.094726672155084e-05</v>
+        <v>2.165518403702044e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220056665313869e-14</v>
+        <v>2.220065693659986e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>6.07196182679033e-11</v>
+        <v>2.628029240681403e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220056665313869e-14</v>
+        <v>2.220065693659986e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9963468356161203</v>
+        <v>0.9950590729292442</v>
       </c>
       <c r="I8" t="n">
-        <v>2.220056665313869e-14</v>
+        <v>2.220065693659986e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>4.271673109503137e-05</v>
+        <v>3.870913388314378e-13</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0004288524153111953</v>
+        <v>0.0004095376535350491</v>
       </c>
       <c r="L8" t="n">
-        <v>1.079401197368596e-07</v>
+        <v>0.0006281734771600617</v>
       </c>
       <c r="M8" t="n">
-        <v>2.220056665313869e-14</v>
+        <v>2.220065693659986e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001372350298731413</v>
+        <v>1.842834198697164e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001725464355686529</v>
+        <v>0.003853010380426956</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9963468356161203</v>
+        <v>0.9950590729292442</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -963,53 +963,53 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG066.fasta</t>
+          <t>RUG094.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.134565189152962e-05</v>
+        <v>2.225162571905455e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>1.207728873286909e-07</v>
+        <v>2.225162571905455e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>3.572571731411018e-08</v>
+        <v>1.532274936478468e-13</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220189268764093e-14</v>
+        <v>2.225162571905455e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003413684155578734</v>
+        <v>2.081351484228575e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>2.220189268764093e-14</v>
+        <v>2.225162571905455e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9972285167840703</v>
+        <v>0.9997983515289945</v>
       </c>
       <c r="I9" t="n">
-        <v>2.220189268764093e-14</v>
+        <v>2.225162571905455e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>1.871512743734983e-10</v>
+        <v>3.724288075575409e-09</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000277146758308745</v>
+        <v>2.225162571905455e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>5.156192378852283e-05</v>
+        <v>1.726499041266147e-11</v>
       </c>
       <c r="M9" t="n">
-        <v>2.220189268764093e-14</v>
+        <v>2.225162571905455e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>1.344710048259418e-06</v>
+        <v>2.225162571905455e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002028559070489961</v>
+        <v>0.0002014365939728739</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9972285167840703</v>
+        <v>0.9997983515289945</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1025,53 +1025,53 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG091.fasta</t>
+          <t>RUG096.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.588712675991652e-09</v>
+        <v>3.362109013573375e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>2.084210581475889e-06</v>
+        <v>9.951710627614252e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>2.165518403702044e-05</v>
+        <v>8.468284193158849e-09</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220065693659986e-14</v>
+        <v>2.221919565206185e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>2.628029240681403e-05</v>
+        <v>2.669536930551678e-11</v>
       </c>
       <c r="G10" t="n">
-        <v>2.220065693659986e-14</v>
+        <v>2.221919565206186e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9950590729292442</v>
+        <v>0.9997065232737292</v>
       </c>
       <c r="I10" t="n">
-        <v>2.220065693659986e-14</v>
+        <v>2.221919565206186e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>3.870913388314378e-13</v>
+        <v>6.293257632802928e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0004095376535350491</v>
+        <v>1.178582762271129e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006281734771600617</v>
+        <v>4.502831021797265e-10</v>
       </c>
       <c r="M10" t="n">
-        <v>2.220065693659986e-14</v>
+        <v>2.221919565206186e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>1.842834198697164e-07</v>
+        <v>2.03717694263422e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003853010380426956</v>
+        <v>0.000263366187003358</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9950590729292442</v>
+        <v>0.9997065232737292</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1087,53 +1087,53 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG094.fasta</t>
+          <t>RUG115.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.225162571905455e-14</v>
+        <v>3.254213208201765e-10</v>
       </c>
       <c r="C11" t="n">
-        <v>2.225162571905455e-14</v>
+        <v>9.480006377960986e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>1.532274936478468e-13</v>
+        <v>2.857656743666726e-08</v>
       </c>
       <c r="E11" t="n">
-        <v>2.225162571905455e-14</v>
+        <v>2.220157573061958e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>2.081351484228575e-07</v>
+        <v>8.832016364249216e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>2.225162571905455e-14</v>
+        <v>2.220157573061958e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9997983515289945</v>
+        <v>0.9980970742571811</v>
       </c>
       <c r="I11" t="n">
-        <v>2.225162571905455e-14</v>
+        <v>2.220157573061958e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>3.724288075575409e-09</v>
+        <v>5.760417125565925e-09</v>
       </c>
       <c r="K11" t="n">
-        <v>2.225162571905455e-14</v>
+        <v>1.654219325678557e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>1.726499041266147e-11</v>
+        <v>1.898450121083667e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>2.225162571905455e-14</v>
+        <v>2.220157573061958e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.225162571905455e-14</v>
+        <v>1.697391473200978e-08</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0002014365939728739</v>
+        <v>0.001865516209667541</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9997983515289945</v>
+        <v>0.9980970742571811</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1211,53 +1211,53 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG145.fasta</t>
+          <t>RUG128.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.948404648018062e-13</v>
+        <v>6.091401003361085e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>3.774435251304142e-06</v>
+        <v>4.781310503010845e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>3.553516558787412e-08</v>
+        <v>4.591119887175675e-06</v>
       </c>
       <c r="E13" t="n">
-        <v>2.22026246718524e-14</v>
+        <v>2.220057171049426e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>2.938248760317323e-13</v>
+        <v>2.204431087360674e-11</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22026246718524e-14</v>
+        <v>2.220057171049426e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9903037088983546</v>
+        <v>0.9967493141370001</v>
       </c>
       <c r="I13" t="n">
-        <v>2.22026246718524e-14</v>
+        <v>2.220057171049426e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>1.969619802757515e-09</v>
+        <v>8.983890054534603e-10</v>
       </c>
       <c r="K13" t="n">
-        <v>5.399314465584476e-07</v>
+        <v>3.250176838518942e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0009650658224998898</v>
+        <v>7.304874763505942e-07</v>
       </c>
       <c r="M13" t="n">
-        <v>2.22026246718524e-14</v>
+        <v>2.220057171049426e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.002477153564354619</v>
+        <v>0.0002517015458317114</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006249719842730088</v>
+        <v>0.002954590488843657</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9903037088983546</v>
+        <v>0.9967493141370001</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1273,53 +1273,53 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG154.fasta</t>
+          <t>RUG145.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.603431723043984e-10</v>
+        <v>1.948404648018062e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>8.491468775793998e-06</v>
+        <v>3.774435251304142e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>2.755576691073977e-06</v>
+        <v>3.553516558787412e-08</v>
       </c>
       <c r="E14" t="n">
-        <v>2.220048684546971e-14</v>
+        <v>2.22026246718524e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1.035974517848963e-10</v>
+        <v>2.938248760317323e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>2.220048684546971e-14</v>
+        <v>2.22026246718524e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9967407153510127</v>
+        <v>0.9903037088983546</v>
       </c>
       <c r="I14" t="n">
-        <v>2.220048684546971e-14</v>
+        <v>2.22026246718524e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>5.57659906312957e-08</v>
+        <v>1.969619802757515e-09</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001461287269092432</v>
+        <v>5.399314465584476e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>4.357055918540843e-05</v>
+        <v>0.0009650658224998898</v>
       </c>
       <c r="M14" t="n">
-        <v>2.220048684546971e-14</v>
+        <v>2.22026246718524e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>3.959737971772218e-07</v>
+        <v>0.002477153564354619</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00305788581360834</v>
+        <v>0.006249719842730088</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9967407153510127</v>
+        <v>0.9903037088983546</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1335,177 +1335,177 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG159.fasta</t>
+          <t>RUG154.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.220375023907245e-14</v>
+        <v>6.603431723043984e-10</v>
       </c>
       <c r="C15" t="n">
-        <v>2.534410626347701e-09</v>
+        <v>8.491468775793998e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>2.220375023907245e-14</v>
+        <v>2.755576691073977e-06</v>
       </c>
       <c r="E15" t="n">
-        <v>2.220375023907245e-14</v>
+        <v>2.220048684546971e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>7.61225009878803e-12</v>
+        <v>1.035974517848963e-10</v>
       </c>
       <c r="G15" t="n">
-        <v>2.220375023907245e-14</v>
+        <v>2.220048684546971e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4438369591774235</v>
+        <v>0.9967407153510127</v>
       </c>
       <c r="I15" t="n">
-        <v>2.220375023907245e-14</v>
+        <v>2.220048684546971e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>0.55616177834738</v>
+        <v>5.57659906312957e-08</v>
       </c>
       <c r="K15" t="n">
-        <v>1.388048234647297e-10</v>
+        <v>0.0001461287269092432</v>
       </c>
       <c r="L15" t="n">
-        <v>4.401819403313292e-12</v>
+        <v>4.357055918540843e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>2.220375023907245e-14</v>
+        <v>2.220048684546971e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>3.511688040809445e-11</v>
+        <v>3.959737971772218e-07</v>
       </c>
       <c r="O15" t="n">
-        <v>1.259754716762306e-06</v>
+        <v>0.00305788581360834</v>
       </c>
       <c r="P15" t="n">
-        <v>0.55616177834738</v>
+        <v>0.9967407153510127</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>f__UBA1390</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>f__UBA1390</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG170.fasta</t>
+          <t>RUG159.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.373772847421493e-05</v>
+        <v>2.220375023907245e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>5.548308109099304e-07</v>
+        <v>2.534410626347701e-09</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001691929917593201</v>
+        <v>2.220375023907245e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>2.220359964359593e-14</v>
+        <v>2.220375023907245e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>6.86623402792053e-07</v>
+        <v>7.61225009878803e-12</v>
       </c>
       <c r="G16" t="n">
-        <v>2.220359964359593e-14</v>
+        <v>2.220375023907245e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9957673954536993</v>
+        <v>0.4438369591774235</v>
       </c>
       <c r="I16" t="n">
-        <v>2.220359964359593e-14</v>
+        <v>2.220375023907245e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>1.135532842300802e-06</v>
+        <v>0.55616177834738</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001779978545145216</v>
+        <v>1.388048234647297e-10</v>
       </c>
       <c r="L16" t="n">
-        <v>7.799619791053864e-06</v>
+        <v>4.401819403313292e-12</v>
       </c>
       <c r="M16" t="n">
-        <v>2.220359964359593e-14</v>
+        <v>2.220375023907245e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0007549198582515469</v>
+        <v>3.511688040809445e-11</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001454598815734633</v>
+        <v>1.259754716762306e-06</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9957673954536993</v>
+        <v>0.55616177834738</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__UBA1390</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae</t>
+          <t>f__UBA1390</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG185.fasta</t>
+          <t>RUG170.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.147297263628034e-05</v>
+        <v>6.373772847421493e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>2.182199073858638e-05</v>
+        <v>5.548308109099304e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>9.988421655297084e-13</v>
+        <v>0.0001691929917593201</v>
       </c>
       <c r="E17" t="n">
-        <v>2.220216915951199e-14</v>
+        <v>2.220359964359593e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>1.11767044729672e-05</v>
+        <v>6.86623402792053e-07</v>
       </c>
       <c r="G17" t="n">
-        <v>2.220216915951199e-14</v>
+        <v>2.220359964359593e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0.998494342385405</v>
+        <v>0.9957673954536993</v>
       </c>
       <c r="I17" t="n">
-        <v>2.220216915951199e-14</v>
+        <v>2.220359964359593e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>2.231546426053888e-10</v>
+        <v>1.135532842300802e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>5.231995094511362e-06</v>
+        <v>0.001779978545145216</v>
       </c>
       <c r="L17" t="n">
-        <v>4.583611145875455e-05</v>
+        <v>7.799619791053864e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>2.220216915951199e-14</v>
+        <v>2.220359964359593e-14</v>
       </c>
       <c r="N17" t="n">
-        <v>2.725770124308519e-08</v>
+        <v>0.0007549198582515469</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001380090358250326</v>
+        <v>0.001454598815734633</v>
       </c>
       <c r="P17" t="n">
-        <v>0.998494342385405</v>
+        <v>0.9957673954536993</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1521,53 +1521,53 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG211.fasta</t>
+          <t>RUG185.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.842556814947325e-06</v>
+        <v>4.147297263628034e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>4.758137522684257e-08</v>
+        <v>2.182199073858638e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>1.735365170165789e-05</v>
+        <v>9.988421655297084e-13</v>
       </c>
       <c r="E18" t="n">
-        <v>2.220064937036781e-14</v>
+        <v>2.220216915951199e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>7.565463573769699e-10</v>
+        <v>1.11767044729672e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>2.220064937036781e-14</v>
+        <v>2.220216915951199e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9963197055360491</v>
+        <v>0.998494342385405</v>
       </c>
       <c r="I18" t="n">
-        <v>2.220064937036781e-14</v>
+        <v>2.220216915951199e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>6.781017317390975e-09</v>
+        <v>2.231546426053888e-10</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003131938854015698</v>
+        <v>5.231995094511362e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>1.702898696986598e-07</v>
+        <v>4.583611145875455e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>2.220064937036781e-14</v>
+        <v>2.220216915951199e-14</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0001949864302215395</v>
+        <v>2.725770124308519e-08</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0003299475622997032</v>
+        <v>0.001380090358250326</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9963197055360491</v>
+        <v>0.998494342385405</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1583,53 +1583,53 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG223.fasta</t>
+          <t>RUG211.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.978345304191203e-05</v>
+        <v>5.842556814947325e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>7.611555864531527e-06</v>
+        <v>4.758137522684257e-08</v>
       </c>
       <c r="D19" t="n">
-        <v>8.736085472892744e-09</v>
+        <v>1.735365170165789e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>2.220105302759026e-14</v>
+        <v>2.220064937036781e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>7.459976574345754e-09</v>
+        <v>7.565463573769699e-10</v>
       </c>
       <c r="G19" t="n">
-        <v>2.220105302759026e-14</v>
+        <v>2.220064937036781e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9931594383601751</v>
+        <v>0.9963197055360491</v>
       </c>
       <c r="I19" t="n">
-        <v>2.220105302759026e-14</v>
+        <v>2.220064937036781e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>9.993262826022237e-05</v>
+        <v>6.781017317390975e-09</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003709295408260306</v>
+        <v>0.003131938854015698</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0009304353143035215</v>
+        <v>1.702898696986598e-07</v>
       </c>
       <c r="M19" t="n">
-        <v>2.220105302759026e-14</v>
+        <v>2.220064937036781e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>2.105207895169174e-08</v>
+        <v>0.0001949864302215395</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005341831899298989</v>
+        <v>0.0003299475622997032</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9931594383601751</v>
+        <v>0.9963197055360491</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1645,53 +1645,53 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG226.fasta</t>
+          <t>RUG223.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.327153482579023e-07</v>
+        <v>8.978345304191203e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>5.170380911734059e-06</v>
+        <v>7.611555864531527e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>3.885744075204798e-09</v>
+        <v>8.736085472892744e-09</v>
       </c>
       <c r="E20" t="n">
-        <v>2.220162291971966e-14</v>
+        <v>2.220105302759026e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001496655490894351</v>
+        <v>7.459976574345754e-09</v>
       </c>
       <c r="G20" t="n">
-        <v>2.220162291971966e-14</v>
+        <v>2.220105302759026e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9926791238926209</v>
+        <v>0.9931594383601751</v>
       </c>
       <c r="I20" t="n">
-        <v>2.220162291971966e-14</v>
+        <v>2.220105302759026e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>4.360275227802836e-12</v>
+        <v>9.993262826022237e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0006610472222553295</v>
+        <v>0.0003709295408260306</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003567871189868477</v>
+        <v>0.0009304353143035215</v>
       </c>
       <c r="M20" t="n">
-        <v>2.220162291971966e-14</v>
+        <v>2.220105302759026e-14</v>
       </c>
       <c r="N20" t="n">
-        <v>1.644540487756898e-08</v>
+        <v>2.105207895169174e-08</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001589978772502756</v>
+        <v>0.005341831899298989</v>
       </c>
       <c r="P20" t="n">
-        <v>0.9926791238926209</v>
+        <v>0.9931594383601751</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1707,53 +1707,53 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG231.fasta</t>
+          <t>RUG226.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.191225000844024e-06</v>
+        <v>1.327153482579023e-07</v>
       </c>
       <c r="C21" t="n">
-        <v>9.560011696148605e-06</v>
+        <v>5.170380911734059e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>6.862495338677068e-10</v>
+        <v>3.885744075204798e-09</v>
       </c>
       <c r="E21" t="n">
-        <v>2.220060844254391e-14</v>
+        <v>2.220162291971966e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>1.440740740796802e-13</v>
+        <v>0.001496655490894351</v>
       </c>
       <c r="G21" t="n">
-        <v>2.220060844254391e-14</v>
+        <v>2.220162291971966e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9935794661071246</v>
+        <v>0.9926791238926209</v>
       </c>
       <c r="I21" t="n">
-        <v>2.220060844254391e-14</v>
+        <v>2.220162291971966e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>1.857516390275691e-05</v>
+        <v>4.360275227802836e-12</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002445557795404286</v>
+        <v>0.0006610472222553295</v>
       </c>
       <c r="L21" t="n">
-        <v>5.457573412096883e-05</v>
+        <v>0.003567871189868477</v>
       </c>
       <c r="M21" t="n">
-        <v>2.220060844254391e-14</v>
+        <v>2.220162291971966e-14</v>
       </c>
       <c r="N21" t="n">
-        <v>8.382691599371422e-07</v>
+        <v>1.644540487756898e-08</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003890235007107992</v>
+        <v>0.001589978772502756</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9935794661071246</v>
+        <v>0.9926791238926209</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1769,53 +1769,53 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG254.fasta</t>
+          <t>RUG252.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.526264425675468e-09</v>
+        <v>2.220047230391865e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>1.566002411871193e-08</v>
+        <v>2.220047230391865e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>2.818114914282486e-14</v>
+        <v>1.263211016112891e-12</v>
       </c>
       <c r="E22" t="n">
-        <v>2.220074221185157e-14</v>
+        <v>2.220047230391865e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>2.339636452224923e-12</v>
+        <v>9.455340325598976e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>2.220074221185157e-14</v>
+        <v>2.220047230391865e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9632903741845495</v>
+        <v>0.9956080502293364</v>
       </c>
       <c r="I22" t="n">
-        <v>2.220074221185157e-14</v>
+        <v>2.220047230391865e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03670750728593973</v>
+        <v>4.07815501052686e-09</v>
       </c>
       <c r="K22" t="n">
-        <v>5.84843867887373e-10</v>
+        <v>2.220047230391865e-14</v>
       </c>
       <c r="L22" t="n">
-        <v>1.629501764138282e-10</v>
+        <v>4.650532549692813e-07</v>
       </c>
       <c r="M22" t="n">
-        <v>2.220074221185157e-14</v>
+        <v>2.220047230391865e-14</v>
       </c>
       <c r="N22" t="n">
-        <v>1.466510919553828e-11</v>
+        <v>2.220047230391865e-14</v>
       </c>
       <c r="O22" t="n">
-        <v>2.098578306436923e-06</v>
+        <v>0.004382025297487093</v>
       </c>
       <c r="P22" t="n">
-        <v>0.9632903741845495</v>
+        <v>0.9956080502293364</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1831,53 +1831,53 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG285.fasta</t>
+          <t>RUG254.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.131647147117702e-10</v>
+        <v>3.526264425675468e-09</v>
       </c>
       <c r="C23" t="n">
-        <v>2.080223761390112e-09</v>
+        <v>1.566002411871193e-08</v>
       </c>
       <c r="D23" t="n">
-        <v>1.499121073544733e-12</v>
+        <v>2.818114914282486e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>2.224673403506174e-14</v>
+        <v>2.220074221185157e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>3.250782052322609e-10</v>
+        <v>2.339636452224923e-12</v>
       </c>
       <c r="G23" t="n">
-        <v>2.224673403506174e-14</v>
+        <v>2.220074221185157e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9999712180176115</v>
+        <v>0.9632903741845495</v>
       </c>
       <c r="I23" t="n">
-        <v>2.224673403506174e-14</v>
+        <v>2.220074221185157e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>9.65739018577862e-07</v>
+        <v>0.03670750728593973</v>
       </c>
       <c r="K23" t="n">
-        <v>2.493624226969444e-11</v>
+        <v>5.84843867887373e-10</v>
       </c>
       <c r="L23" t="n">
-        <v>6.960618579332044e-12</v>
+        <v>1.629501764138282e-10</v>
       </c>
       <c r="M23" t="n">
-        <v>2.224673403506173e-14</v>
+        <v>2.220074221185157e-14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.224673403506179e-14</v>
+        <v>1.466510919553828e-11</v>
       </c>
       <c r="O23" t="n">
-        <v>2.781369139624922e-05</v>
+        <v>2.098578306436923e-06</v>
       </c>
       <c r="P23" t="n">
-        <v>0.9999712180176115</v>
+        <v>0.9632903741845495</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2017,53 +2017,53 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG300.fasta</t>
+          <t>RUG304.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.222602879301812e-14</v>
+        <v>8.321068210530374e-07</v>
       </c>
       <c r="C26" t="n">
-        <v>2.222602879301812e-14</v>
+        <v>5.851376477490621e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>7.952901547685917e-12</v>
+        <v>4.05144323809239e-09</v>
       </c>
       <c r="E26" t="n">
-        <v>2.222602879301812e-14</v>
+        <v>5.903664322364587e-13</v>
       </c>
       <c r="F26" t="n">
-        <v>4.290035820762755e-10</v>
+        <v>3.355241863827769e-10</v>
       </c>
       <c r="G26" t="n">
-        <v>2.222602879301812e-14</v>
+        <v>5.903664322365481e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9998117613282625</v>
+        <v>0.9882397234956085</v>
       </c>
       <c r="I26" t="n">
-        <v>2.222602879301812e-14</v>
+        <v>5.903664322365453e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>1.010942822661594e-07</v>
+        <v>0.009109717851478075</v>
       </c>
       <c r="K26" t="n">
-        <v>2.222602879301811e-14</v>
+        <v>3.967253943706734e-08</v>
       </c>
       <c r="L26" t="n">
-        <v>4.811212308330449e-11</v>
+        <v>2.051561960334877e-09</v>
       </c>
       <c r="M26" t="n">
-        <v>2.222602879301811e-14</v>
+        <v>5.903664322365429e-13</v>
       </c>
       <c r="N26" t="n">
-        <v>2.222602879301811e-14</v>
+        <v>1.201622358817383e-09</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0001881370922088202</v>
+        <v>0.002643827854562238</v>
       </c>
       <c r="P26" t="n">
-        <v>0.9998117613282625</v>
+        <v>0.9882397234956085</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2079,53 +2079,53 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG304.fasta</t>
+          <t>RUG305.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.321068210530374e-07</v>
+        <v>3.930099788161888e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>5.851376477490621e-06</v>
+        <v>1.754393558401365e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>4.05144323809239e-09</v>
+        <v>2.826854740486609e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>5.903664322364587e-13</v>
+        <v>2.220116771785446e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>3.355241863827769e-10</v>
+        <v>1.97268759606034e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>5.903664322365481e-13</v>
+        <v>2.220116771785446e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9882397234956085</v>
+        <v>0.9922245696808559</v>
       </c>
       <c r="I27" t="n">
-        <v>5.903664322365453e-13</v>
+        <v>2.220116771785446e-14</v>
       </c>
       <c r="J27" t="n">
-        <v>0.009109717851478075</v>
+        <v>1.015884835954505e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.967253943706734e-08</v>
+        <v>0.0003148955514334301</v>
       </c>
       <c r="L27" t="n">
-        <v>2.051561960334877e-09</v>
+        <v>0.004793381332256715</v>
       </c>
       <c r="M27" t="n">
-        <v>5.903664322365429e-13</v>
+        <v>2.220116771785446e-14</v>
       </c>
       <c r="N27" t="n">
-        <v>1.201622358817383e-09</v>
+        <v>1.670285636927444e-08</v>
       </c>
       <c r="O27" t="n">
-        <v>0.002643827854562238</v>
+        <v>0.002650030938275371</v>
       </c>
       <c r="P27" t="n">
-        <v>0.9882397234956085</v>
+        <v>0.9922245696808559</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2141,53 +2141,53 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>RUG305.fasta</t>
+          <t>RUG308.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.930099788161888e-07</v>
+        <v>2.346173010042337e-10</v>
       </c>
       <c r="C28" t="n">
-        <v>1.754393558401365e-06</v>
+        <v>5.132892282964734e-09</v>
       </c>
       <c r="D28" t="n">
-        <v>2.826854740486609e-06</v>
+        <v>2.221724416581024e-12</v>
       </c>
       <c r="E28" t="n">
-        <v>2.220116771785446e-14</v>
+        <v>2.225691132531274e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>1.97268759606034e-06</v>
+        <v>1.970395498430818e-10</v>
       </c>
       <c r="G28" t="n">
-        <v>2.220116771785446e-14</v>
+        <v>2.225691132531274e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9922245696808559</v>
+        <v>0.9999691626511419</v>
       </c>
       <c r="I28" t="n">
-        <v>2.220116771785446e-14</v>
+        <v>2.225691132531274e-14</v>
       </c>
       <c r="J28" t="n">
-        <v>1.015884835954505e-05</v>
+        <v>1.886660245086633e-06</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0003148955514334301</v>
+        <v>5.591927230183871e-11</v>
       </c>
       <c r="L28" t="n">
-        <v>0.004793381332256715</v>
+        <v>7.398505439941416e-12</v>
       </c>
       <c r="M28" t="n">
-        <v>2.220116771785446e-14</v>
+        <v>2.225691132531274e-14</v>
       </c>
       <c r="N28" t="n">
-        <v>1.670285636927444e-08</v>
+        <v>5.582420218867582e-14</v>
       </c>
       <c r="O28" t="n">
-        <v>0.002650030938275371</v>
+        <v>2.894505837965539e-05</v>
       </c>
       <c r="P28" t="n">
-        <v>0.9922245696808559</v>
+        <v>0.9999691626511419</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2637,53 +2637,53 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RUG402.fasta</t>
+          <t>RUG399.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.225228051372693e-14</v>
+        <v>2.220901862148597e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>2.225228051372693e-14</v>
+        <v>2.220901862148597e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>1.436429881342007e-13</v>
+        <v>2.220901862148597e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>2.225228051372693e-14</v>
+        <v>2.220901862148597e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>2.886602327230249e-07</v>
+        <v>0.0001584523247856175</v>
       </c>
       <c r="G36" t="n">
-        <v>2.225228051372693e-14</v>
+        <v>2.220901862148597e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9997983202112243</v>
+        <v>0.99983156864581</v>
       </c>
       <c r="I36" t="n">
-        <v>2.225228051372693e-14</v>
+        <v>2.220901862148597e-14</v>
       </c>
       <c r="J36" t="n">
-        <v>2.120470179284764e-09</v>
+        <v>2.220901862148608e-14</v>
       </c>
       <c r="K36" t="n">
-        <v>2.225228051372693e-14</v>
+        <v>2.220901862148597e-14</v>
       </c>
       <c r="L36" t="n">
-        <v>2.176212889311514e-11</v>
+        <v>5.136310763008135e-09</v>
       </c>
       <c r="M36" t="n">
-        <v>2.225228051372693e-14</v>
+        <v>2.220901862148597e-14</v>
       </c>
       <c r="N36" t="n">
-        <v>2.225228051372693e-14</v>
+        <v>2.220901862148597e-14</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0002013889859891683</v>
+        <v>9.973892871512261e-06</v>
       </c>
       <c r="P36" t="n">
-        <v>0.9997983202112243</v>
+        <v>0.99983156864581</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2699,53 +2699,53 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>RUG427.fasta</t>
+          <t>RUG402.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.224898011510567e-14</v>
+        <v>2.225228051372693e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>2.224898011510567e-14</v>
+        <v>2.225228051372693e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>3.707930329070205e-13</v>
+        <v>1.436429881342007e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>2.224898011510567e-14</v>
+        <v>2.225228051372693e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>1.372761528537723e-06</v>
+        <v>2.886602327230249e-07</v>
       </c>
       <c r="G37" t="n">
-        <v>2.224898011510567e-14</v>
+        <v>2.225228051372693e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9876547359855492</v>
+        <v>0.9997983202112243</v>
       </c>
       <c r="I37" t="n">
-        <v>2.224898011510567e-14</v>
+        <v>2.225228051372693e-14</v>
       </c>
       <c r="J37" t="n">
-        <v>0.007421902755351458</v>
+        <v>2.120470179284764e-09</v>
       </c>
       <c r="K37" t="n">
-        <v>2.224898011510567e-14</v>
+        <v>2.225228051372693e-14</v>
       </c>
       <c r="L37" t="n">
-        <v>1.069512201186692e-08</v>
+        <v>2.176212889311514e-11</v>
       </c>
       <c r="M37" t="n">
-        <v>2.224898011510567e-14</v>
+        <v>2.225228051372693e-14</v>
       </c>
       <c r="N37" t="n">
-        <v>2.224898011510567e-14</v>
+        <v>2.225228051372693e-14</v>
       </c>
       <c r="O37" t="n">
-        <v>0.004921977801900251</v>
+        <v>0.0002013889859891683</v>
       </c>
       <c r="P37" t="n">
-        <v>0.9876547359855492</v>
+        <v>0.9997983202112243</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2761,53 +2761,53 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>RUG458.fasta</t>
+          <t>RUG427.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.504309579401591e-06</v>
+        <v>2.224898011510567e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>3.625580128301397e-06</v>
+        <v>2.224898011510567e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>1.212836439101846e-13</v>
+        <v>3.707930329070205e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>7.316023635296232e-14</v>
+        <v>2.224898011510567e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>2.161349379266105e-09</v>
+        <v>1.372761528537723e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>7.316023635296245e-14</v>
+        <v>2.224898011510567e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9978244775731792</v>
+        <v>0.9876547359855492</v>
       </c>
       <c r="I38" t="n">
-        <v>7.31602363529624e-14</v>
+        <v>2.224898011510567e-14</v>
       </c>
       <c r="J38" t="n">
-        <v>0.002132205978635759</v>
+        <v>0.007421902755351458</v>
       </c>
       <c r="K38" t="n">
-        <v>1.062329901249039e-07</v>
+        <v>2.224898011510567e-14</v>
       </c>
       <c r="L38" t="n">
-        <v>1.378318847756021e-10</v>
+        <v>1.069512201186692e-08</v>
       </c>
       <c r="M38" t="n">
-        <v>7.316023635296223e-14</v>
+        <v>2.224898011510567e-14</v>
       </c>
       <c r="N38" t="n">
-        <v>4.463889455741257e-09</v>
+        <v>2.224898011510567e-14</v>
       </c>
       <c r="O38" t="n">
-        <v>3.807356200247116e-05</v>
+        <v>0.004921977801900251</v>
       </c>
       <c r="P38" t="n">
-        <v>0.9978244775731792</v>
+        <v>0.9876547359855492</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3381,53 +3381,53 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>RUG671.fasta</t>
+          <t>RUG681.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.059484351502812e-05</v>
+        <v>5.382549378762157e-07</v>
       </c>
       <c r="C48" t="n">
-        <v>1.315981177621315e-06</v>
+        <v>1.536843306742088e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>1.770580203888458e-05</v>
+        <v>8.081595359114541e-09</v>
       </c>
       <c r="E48" t="n">
-        <v>2.220189494503611e-14</v>
+        <v>1.113763144595981e-12</v>
       </c>
       <c r="F48" t="n">
-        <v>1.282283302648293e-11</v>
+        <v>4.843515224190788e-09</v>
       </c>
       <c r="G48" t="n">
-        <v>2.220189494503611e-14</v>
+        <v>1.113763144595983e-12</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9983173504642238</v>
+        <v>0.9820582927075149</v>
       </c>
       <c r="I48" t="n">
-        <v>2.220189494503611e-14</v>
+        <v>1.11376314459598e-12</v>
       </c>
       <c r="J48" t="n">
-        <v>4.049040731464249e-08</v>
+        <v>0.007754245139594365</v>
       </c>
       <c r="K48" t="n">
-        <v>6.769350388949533e-05</v>
+        <v>1.11493016407641e-09</v>
       </c>
       <c r="L48" t="n">
-        <v>1.089105994297997e-07</v>
+        <v>3.215443802796214e-09</v>
       </c>
       <c r="M48" t="n">
-        <v>2.220189494503611e-14</v>
+        <v>1.113763144595989e-12</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0005126278004180297</v>
+        <v>1.676384521775853e-12</v>
       </c>
       <c r="O48" t="n">
-        <v>0.001042562190818921</v>
+        <v>0.01018675295200615</v>
       </c>
       <c r="P48" t="n">
-        <v>0.9983173504642238</v>
+        <v>0.9820582927075149</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3443,53 +3443,53 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>RUG681.fasta</t>
+          <t>RUG686.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5.382549378762157e-07</v>
+        <v>2.22040508923118e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>1.536843306742088e-07</v>
+        <v>2.22040508923118e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>8.081595359114541e-09</v>
+        <v>2.22040508923118e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>1.113763144595981e-12</v>
+        <v>2.22040508923118e-14</v>
       </c>
       <c r="F49" t="n">
-        <v>4.843515224190788e-09</v>
+        <v>0.0005544261460627313</v>
       </c>
       <c r="G49" t="n">
-        <v>1.113763144595983e-12</v>
+        <v>2.22040508923118e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9820582927075149</v>
+        <v>0.9994361840304687</v>
       </c>
       <c r="I49" t="n">
-        <v>1.11376314459598e-12</v>
+        <v>2.22040508923118e-14</v>
       </c>
       <c r="J49" t="n">
-        <v>0.007754245139594365</v>
+        <v>2.22040508923118e-14</v>
       </c>
       <c r="K49" t="n">
-        <v>1.11493016407641e-09</v>
+        <v>2.22040508923118e-14</v>
       </c>
       <c r="L49" t="n">
-        <v>3.215443802796214e-09</v>
+        <v>1.169168217090855e-08</v>
       </c>
       <c r="M49" t="n">
-        <v>1.113763144595989e-12</v>
+        <v>2.22040508923118e-14</v>
       </c>
       <c r="N49" t="n">
-        <v>1.676384521775853e-12</v>
+        <v>2.22040508923118e-14</v>
       </c>
       <c r="O49" t="n">
-        <v>0.01018675295200615</v>
+        <v>9.378131564309744e-06</v>
       </c>
       <c r="P49" t="n">
-        <v>0.9820582927075149</v>
+        <v>0.9994361840304687</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3505,53 +3505,53 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>RUG686.fasta</t>
+          <t>RUG687.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2.22040508923118e-14</v>
+        <v>2.329153307402093e-08</v>
       </c>
       <c r="C50" t="n">
-        <v>2.22040508923118e-14</v>
+        <v>7.838197001518994e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>2.22040508923118e-14</v>
+        <v>3.85734173210779e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>2.22040508923118e-14</v>
+        <v>3.8573417321078e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0005544261460627313</v>
+        <v>1.086801625477098e-10</v>
       </c>
       <c r="G50" t="n">
-        <v>2.22040508923118e-14</v>
+        <v>3.857341732107803e-14</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9994361840304687</v>
+        <v>0.9998518401350881</v>
       </c>
       <c r="I50" t="n">
-        <v>2.22040508923118e-14</v>
+        <v>3.857341732107798e-14</v>
       </c>
       <c r="J50" t="n">
-        <v>2.22040508923118e-14</v>
+        <v>0.0001424435160707886</v>
       </c>
       <c r="K50" t="n">
-        <v>2.22040508923118e-14</v>
+        <v>1.697541950767864e-08</v>
       </c>
       <c r="L50" t="n">
-        <v>1.169168217090855e-08</v>
+        <v>1.203171804249449e-11</v>
       </c>
       <c r="M50" t="n">
-        <v>2.22040508923118e-14</v>
+        <v>3.857341732107755e-14</v>
       </c>
       <c r="N50" t="n">
-        <v>2.22040508923118e-14</v>
+        <v>4.000595019740334e-10</v>
       </c>
       <c r="O50" t="n">
-        <v>9.378131564309744e-06</v>
+        <v>4.891741224220448e-06</v>
       </c>
       <c r="P50" t="n">
-        <v>0.9994361840304687</v>
+        <v>0.9998518401350881</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3567,53 +3567,53 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>RUG687.fasta</t>
+          <t>RUG694.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.329153307402093e-08</v>
+        <v>2.414855735935126e-07</v>
       </c>
       <c r="C51" t="n">
-        <v>7.838197001518994e-07</v>
+        <v>7.694346918357168e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>3.85734173210779e-14</v>
+        <v>6.843278252014136e-13</v>
       </c>
       <c r="E51" t="n">
-        <v>3.8573417321078e-14</v>
+        <v>2.220436250667267e-14</v>
       </c>
       <c r="F51" t="n">
-        <v>1.086801625477098e-10</v>
+        <v>2.220436250667267e-14</v>
       </c>
       <c r="G51" t="n">
-        <v>3.857341732107803e-14</v>
+        <v>2.220436250667267e-14</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9998518401350881</v>
+        <v>0.9997221203735154</v>
       </c>
       <c r="I51" t="n">
-        <v>3.857341732107798e-14</v>
+        <v>2.220436250667267e-14</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0001424435160707886</v>
+        <v>1.399600437833377e-05</v>
       </c>
       <c r="K51" t="n">
-        <v>1.697541950767864e-08</v>
+        <v>0.0001786212501913871</v>
       </c>
       <c r="L51" t="n">
-        <v>1.203171804249449e-11</v>
+        <v>5.416173831573705e-10</v>
       </c>
       <c r="M51" t="n">
-        <v>3.857341732107755e-14</v>
+        <v>2.220436250667267e-14</v>
       </c>
       <c r="N51" t="n">
-        <v>4.000595019740334e-10</v>
+        <v>2.91149139732179e-05</v>
       </c>
       <c r="O51" t="n">
-        <v>4.891741224220448e-06</v>
+        <v>4.821108303703368e-05</v>
       </c>
       <c r="P51" t="n">
-        <v>0.9998518401350881</v>
+        <v>0.9997221203735154</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -3629,53 +3629,53 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>RUG694.fasta</t>
+          <t>RUG709.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.414855735935126e-07</v>
+        <v>5.705898452789706e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>7.694346918357168e-06</v>
+        <v>4.11831893947983e-08</v>
       </c>
       <c r="D52" t="n">
-        <v>6.843278252014136e-13</v>
+        <v>2.541899769608577e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>2.220436250667267e-14</v>
+        <v>2.220192505805835e-14</v>
       </c>
       <c r="F52" t="n">
-        <v>2.220436250667267e-14</v>
+        <v>5.765124751434704e-11</v>
       </c>
       <c r="G52" t="n">
-        <v>2.220436250667267e-14</v>
+        <v>2.220192505805835e-14</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9997221203735154</v>
+        <v>0.9940657994633451</v>
       </c>
       <c r="I52" t="n">
-        <v>2.220436250667267e-14</v>
+        <v>2.220192505805835e-14</v>
       </c>
       <c r="J52" t="n">
-        <v>1.399600437833377e-05</v>
+        <v>3.200247055955129e-08</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0001786212501913871</v>
+        <v>0.003595988873053916</v>
       </c>
       <c r="L52" t="n">
-        <v>5.416173831573705e-10</v>
+        <v>1.659584593301095e-07</v>
       </c>
       <c r="M52" t="n">
-        <v>2.220436250667267e-14</v>
+        <v>2.220192505805835e-14</v>
       </c>
       <c r="N52" t="n">
-        <v>2.91149139732179e-05</v>
+        <v>0.002031993028315142</v>
       </c>
       <c r="O52" t="n">
-        <v>4.821108303703368e-05</v>
+        <v>0.000246378549129042</v>
       </c>
       <c r="P52" t="n">
-        <v>0.9997221203735154</v>
+        <v>0.9940657994633451</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -3691,53 +3691,53 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>RUG709.fasta</t>
+          <t>RUG710.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5.705898452789706e-05</v>
+        <v>0.0007233989675353303</v>
       </c>
       <c r="C53" t="n">
-        <v>4.11831893947983e-08</v>
+        <v>0.0007256007836807442</v>
       </c>
       <c r="D53" t="n">
-        <v>2.541899769608577e-06</v>
+        <v>0.0007233948098067857</v>
       </c>
       <c r="E53" t="n">
-        <v>2.220192505805835e-14</v>
+        <v>0.00072339480979964</v>
       </c>
       <c r="F53" t="n">
-        <v>5.765124751434704e-11</v>
+        <v>0.0007233948102899222</v>
       </c>
       <c r="G53" t="n">
-        <v>2.220192505805835e-14</v>
+        <v>0.0007233948097996404</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9940657994633451</v>
+        <v>0.9905836854318566</v>
       </c>
       <c r="I53" t="n">
-        <v>2.220192505805835e-14</v>
+        <v>0.0007233948097996408</v>
       </c>
       <c r="J53" t="n">
-        <v>3.200247055955129e-08</v>
+        <v>0.0007283145994590027</v>
       </c>
       <c r="K53" t="n">
-        <v>0.003595988873053916</v>
+        <v>0.0007239851562601545</v>
       </c>
       <c r="L53" t="n">
-        <v>1.659584593301095e-07</v>
+        <v>0.0007233949062179482</v>
       </c>
       <c r="M53" t="n">
-        <v>2.220192505805835e-14</v>
+        <v>0.0007233948097996383</v>
       </c>
       <c r="N53" t="n">
-        <v>0.002031993028315142</v>
+        <v>0.000726577165872602</v>
       </c>
       <c r="O53" t="n">
-        <v>0.000246378549129042</v>
+        <v>0.000724674129822275</v>
       </c>
       <c r="P53" t="n">
-        <v>0.9940657994633451</v>
+        <v>0.9905836854318566</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -3753,53 +3753,53 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>RUG710.fasta</t>
+          <t>RUG724.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0007233989675353303</v>
+        <v>6.184242544767328e-06</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0007256007836807442</v>
+        <v>2.86980069498317e-07</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0007233948098067857</v>
+        <v>5.614198049873698e-08</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00072339480979964</v>
+        <v>2.220090072667105e-14</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007233948102899222</v>
+        <v>3.558772617845758e-09</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0007233948097996404</v>
+        <v>2.220090072667105e-14</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9905836854318566</v>
+        <v>0.997672981378378</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0007233948097996408</v>
+        <v>2.220090072667105e-14</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0007283145994590027</v>
+        <v>1.318360723685709e-11</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0007239851562601545</v>
+        <v>4.482455693361009e-05</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0007233949062179482</v>
+        <v>1.506413533085684e-05</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0007233948097996383</v>
+        <v>2.220090072667105e-14</v>
       </c>
       <c r="N54" t="n">
-        <v>0.000726577165872602</v>
+        <v>7.456339868437129e-05</v>
       </c>
       <c r="O54" t="n">
-        <v>0.000724674129822275</v>
+        <v>0.002186035594033395</v>
       </c>
       <c r="P54" t="n">
-        <v>0.9905836854318566</v>
+        <v>0.997672981378378</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3815,53 +3815,53 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>RUG724.fasta</t>
+          <t>RUG731.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6.184242544767328e-06</v>
+        <v>2.220416414525783e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>2.86980069498317e-07</v>
+        <v>2.220416414525783e-14</v>
       </c>
       <c r="D55" t="n">
-        <v>5.614198049873698e-08</v>
+        <v>2.220416414525783e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>2.220090072667105e-14</v>
+        <v>2.220416414525783e-14</v>
       </c>
       <c r="F55" t="n">
-        <v>3.558772617845758e-09</v>
+        <v>0.0004947022418582451</v>
       </c>
       <c r="G55" t="n">
-        <v>2.220090072667105e-14</v>
+        <v>2.220416414525783e-14</v>
       </c>
       <c r="H55" t="n">
-        <v>0.997672981378378</v>
+        <v>0.9994970231424839</v>
       </c>
       <c r="I55" t="n">
-        <v>2.220090072667105e-14</v>
+        <v>2.220416414525783e-14</v>
       </c>
       <c r="J55" t="n">
-        <v>1.318360723685709e-11</v>
+        <v>2.220416414525783e-14</v>
       </c>
       <c r="K55" t="n">
-        <v>4.482455693361009e-05</v>
+        <v>2.220416414525783e-14</v>
       </c>
       <c r="L55" t="n">
-        <v>1.506413533085684e-05</v>
+        <v>9.159728661338202e-09</v>
       </c>
       <c r="M55" t="n">
-        <v>2.220090072667105e-14</v>
+        <v>2.220416414525783e-14</v>
       </c>
       <c r="N55" t="n">
-        <v>7.456339868437129e-05</v>
+        <v>2.220416414525783e-14</v>
       </c>
       <c r="O55" t="n">
-        <v>0.002186035594033395</v>
+        <v>8.265455707180943e-06</v>
       </c>
       <c r="P55" t="n">
-        <v>0.997672981378378</v>
+        <v>0.9994970231424839</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -3877,53 +3877,53 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>RUG731.fasta</t>
+          <t>RUG735.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.220416414525783e-14</v>
+        <v>0.0001936615719026535</v>
       </c>
       <c r="C56" t="n">
-        <v>2.220416414525783e-14</v>
+        <v>4.988425042906959e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>2.220416414525783e-14</v>
+        <v>2.19555203585713e-09</v>
       </c>
       <c r="E56" t="n">
-        <v>2.220416414525783e-14</v>
+        <v>2.220088829753036e-14</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0004947022418582451</v>
+        <v>1.877043776100642e-07</v>
       </c>
       <c r="G56" t="n">
-        <v>2.220416414525783e-14</v>
+        <v>2.220088829753036e-14</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9994970231424839</v>
+        <v>0.9963360044639404</v>
       </c>
       <c r="I56" t="n">
-        <v>2.220416414525783e-14</v>
+        <v>2.220088829753036e-14</v>
       </c>
       <c r="J56" t="n">
-        <v>2.220416414525783e-14</v>
+        <v>4.265455917656464e-08</v>
       </c>
       <c r="K56" t="n">
-        <v>2.220416414525783e-14</v>
+        <v>0.0001204754126655773</v>
       </c>
       <c r="L56" t="n">
-        <v>9.159728661338202e-09</v>
+        <v>0.000667913030917187</v>
       </c>
       <c r="M56" t="n">
-        <v>2.220416414525783e-14</v>
+        <v>2.220088829753036e-14</v>
       </c>
       <c r="N56" t="n">
-        <v>2.220416414525783e-14</v>
+        <v>1.380526967589971e-06</v>
       </c>
       <c r="O56" t="n">
-        <v>8.265455707180943e-06</v>
+        <v>0.002630448188600025</v>
       </c>
       <c r="P56" t="n">
-        <v>0.9994970231424839</v>
+        <v>0.9963360044639404</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3939,53 +3939,53 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>RUG735.fasta</t>
+          <t>RUG764.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0001936615719026535</v>
+        <v>8.115460258596925e-07</v>
       </c>
       <c r="C57" t="n">
-        <v>4.988425042906959e-05</v>
+        <v>5.115277247623507e-06</v>
       </c>
       <c r="D57" t="n">
-        <v>2.19555203585713e-09</v>
+        <v>4.16002992392235e-10</v>
       </c>
       <c r="E57" t="n">
-        <v>2.220088829753036e-14</v>
+        <v>2.220065264846322e-14</v>
       </c>
       <c r="F57" t="n">
-        <v>1.877043776100642e-07</v>
+        <v>2.220065264846322e-14</v>
       </c>
       <c r="G57" t="n">
-        <v>2.220088829753036e-14</v>
+        <v>2.220065264846322e-14</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9963360044639404</v>
+        <v>0.9945945430711381</v>
       </c>
       <c r="I57" t="n">
-        <v>2.220088829753036e-14</v>
+        <v>2.220065264846322e-14</v>
       </c>
       <c r="J57" t="n">
-        <v>4.265455917656464e-08</v>
+        <v>1.374627654295401e-06</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0001204754126655773</v>
+        <v>0.004289504237880805</v>
       </c>
       <c r="L57" t="n">
-        <v>0.000667913030917187</v>
+        <v>2.42687214382464e-08</v>
       </c>
       <c r="M57" t="n">
-        <v>2.220088829753036e-14</v>
+        <v>2.220065264846322e-14</v>
       </c>
       <c r="N57" t="n">
-        <v>1.380526967589971e-06</v>
+        <v>0.001081930724696529</v>
       </c>
       <c r="O57" t="n">
-        <v>0.002630448188600025</v>
+        <v>2.669583052148449e-05</v>
       </c>
       <c r="P57" t="n">
-        <v>0.9963360044639404</v>
+        <v>0.9945945430711381</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4001,53 +4001,53 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>RUG760.fasta</t>
+          <t>RUG797.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.771333218780857e-12</v>
+        <v>2.220432421461317e-14</v>
       </c>
       <c r="C58" t="n">
-        <v>2.771333218780857e-12</v>
+        <v>2.220432421461317e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>1.226661260147108e-09</v>
+        <v>2.220432421461317e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>2.771333218780857e-12</v>
+        <v>2.220432421461317e-14</v>
       </c>
       <c r="F58" t="n">
-        <v>1.377789877064937e-05</v>
+        <v>0.0003747455047932544</v>
       </c>
       <c r="G58" t="n">
-        <v>2.771333218780864e-12</v>
+        <v>2.220432421461317e-14</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9687698733856309</v>
+        <v>0.9996164882072678</v>
       </c>
       <c r="I58" t="n">
-        <v>2.771333218780864e-12</v>
+        <v>2.220432421461317e-14</v>
       </c>
       <c r="J58" t="n">
-        <v>3.422364965620357e-05</v>
+        <v>2.220432421461317e-14</v>
       </c>
       <c r="K58" t="n">
-        <v>2.771333218780859e-12</v>
+        <v>2.220432421461317e-14</v>
       </c>
       <c r="L58" t="n">
-        <v>6.213088151139315e-09</v>
+        <v>7.486562734259593e-09</v>
       </c>
       <c r="M58" t="n">
-        <v>2.771333218780861e-12</v>
+        <v>2.220432421461317e-14</v>
       </c>
       <c r="N58" t="n">
-        <v>2.771333218780855e-12</v>
+        <v>2.220432421461317e-14</v>
       </c>
       <c r="O58" t="n">
-        <v>0.03118211760402205</v>
+        <v>8.758801154144578e-06</v>
       </c>
       <c r="P58" t="n">
-        <v>0.9687698733856309</v>
+        <v>0.9996164882072678</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -4063,53 +4063,53 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>RUG764.fasta</t>
+          <t>RUG809.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>8.115460258596925e-07</v>
+        <v>1.730605196237525e-06</v>
       </c>
       <c r="C59" t="n">
-        <v>5.115277247623507e-06</v>
+        <v>3.525269628558551e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>4.16002992392235e-10</v>
+        <v>1.431521639518105e-09</v>
       </c>
       <c r="E59" t="n">
-        <v>2.220065264846322e-14</v>
+        <v>2.220058925773924e-14</v>
       </c>
       <c r="F59" t="n">
-        <v>2.220065264846322e-14</v>
+        <v>9.625274460902607e-11</v>
       </c>
       <c r="G59" t="n">
-        <v>2.220065264846322e-14</v>
+        <v>2.220058925773924e-14</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9945945430711381</v>
+        <v>0.994691867092565</v>
       </c>
       <c r="I59" t="n">
-        <v>2.220065264846322e-14</v>
+        <v>2.220058925773924e-14</v>
       </c>
       <c r="J59" t="n">
-        <v>1.374627654295401e-06</v>
+        <v>4.009823584588506e-12</v>
       </c>
       <c r="K59" t="n">
-        <v>0.004289504237880805</v>
+        <v>3.290654445536494e-07</v>
       </c>
       <c r="L59" t="n">
-        <v>2.42687214382464e-08</v>
+        <v>2.028341330445734e-05</v>
       </c>
       <c r="M59" t="n">
-        <v>2.220065264846322e-14</v>
+        <v>2.220058925773924e-14</v>
       </c>
       <c r="N59" t="n">
-        <v>0.001081930724696529</v>
+        <v>0.0001010225956757529</v>
       </c>
       <c r="O59" t="n">
-        <v>2.669583052148449e-05</v>
+        <v>0.005181240426312448</v>
       </c>
       <c r="P59" t="n">
-        <v>0.9945945430711381</v>
+        <v>0.994691867092565</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -4125,115 +4125,115 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>RUG769.fasta</t>
+          <t>RUG811.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0002160463521474795</v>
+        <v>2.100311041774704e-08</v>
       </c>
       <c r="C60" t="n">
-        <v>4.592930240709373e-09</v>
+        <v>5.490873334937564e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>1.528624365707864e-10</v>
+        <v>3.986479574577391e-09</v>
       </c>
       <c r="E60" t="n">
-        <v>1.022720504914513e-13</v>
+        <v>2.220053948824699e-14</v>
       </c>
       <c r="F60" t="n">
-        <v>1.022720504914513e-13</v>
+        <v>1.133515853928992e-11</v>
       </c>
       <c r="G60" t="n">
-        <v>1.022720504914513e-13</v>
+        <v>2.220053948824699e-14</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0006691900666572636</v>
+        <v>0.9956987389484756</v>
       </c>
       <c r="I60" t="n">
-        <v>1.022720504914513e-13</v>
+        <v>2.220053948824699e-14</v>
       </c>
       <c r="J60" t="n">
-        <v>1.022720504914513e-13</v>
+        <v>9.096759425920956e-05</v>
       </c>
       <c r="K60" t="n">
-        <v>0.002865731677007345</v>
+        <v>0.0001156006915426764</v>
       </c>
       <c r="L60" t="n">
-        <v>1.735788351254647e-07</v>
+        <v>2.555378642025433e-07</v>
       </c>
       <c r="M60" t="n">
-        <v>1.022720504914515e-13</v>
+        <v>2.220053948824699e-14</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2633058140293036</v>
+        <v>0.003927605636921826</v>
       </c>
       <c r="O60" t="n">
-        <v>0.7329430395496429</v>
+        <v>0.0001613157165876678</v>
       </c>
       <c r="P60" t="n">
-        <v>0.7329430395496429</v>
+        <v>0.9956987389484756</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>f__WRBF01</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>f__WRBF01</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>RUG811.fasta</t>
+          <t>RUG816.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.100311041774704e-08</v>
+        <v>9.288110283777887e-13</v>
       </c>
       <c r="C61" t="n">
-        <v>5.490873334937564e-06</v>
+        <v>0.000485210348679927</v>
       </c>
       <c r="D61" t="n">
-        <v>3.986479574577391e-09</v>
+        <v>0.001510268094795753</v>
       </c>
       <c r="E61" t="n">
-        <v>2.220053948824699e-14</v>
+        <v>2.449952625718571e-14</v>
       </c>
       <c r="F61" t="n">
-        <v>1.133515853928992e-11</v>
+        <v>2.513966881725854e-12</v>
       </c>
       <c r="G61" t="n">
-        <v>2.220053948824699e-14</v>
+        <v>2.449952625718577e-14</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9956987389484756</v>
+        <v>0.9868304691915983</v>
       </c>
       <c r="I61" t="n">
-        <v>2.220053948824699e-14</v>
+        <v>2.449952625718577e-14</v>
       </c>
       <c r="J61" t="n">
-        <v>9.096759425920956e-05</v>
+        <v>2.449952625718803e-14</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0001156006915426764</v>
+        <v>1.908607741832442e-06</v>
       </c>
       <c r="L61" t="n">
-        <v>2.555378642025433e-07</v>
+        <v>0.01044025601785484</v>
       </c>
       <c r="M61" t="n">
-        <v>2.220053948824699e-14</v>
+        <v>2.449952625718573e-14</v>
       </c>
       <c r="N61" t="n">
-        <v>0.003927605636921826</v>
+        <v>9.239100109310394e-06</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0001613157165876678</v>
+        <v>0.0007226486356544469</v>
       </c>
       <c r="P61" t="n">
-        <v>0.9956987389484756</v>
+        <v>0.9868304691915983</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -4249,53 +4249,53 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>RUG816.fasta</t>
+          <t>RUG824.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9.288110283777887e-13</v>
+        <v>2.310529135328709e-06</v>
       </c>
       <c r="C62" t="n">
-        <v>0.000485210348679927</v>
+        <v>2.730378994877017e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001510268094795753</v>
+        <v>8.628582674643857e-09</v>
       </c>
       <c r="E62" t="n">
-        <v>2.449952625718571e-14</v>
+        <v>1.012531177606247e-12</v>
       </c>
       <c r="F62" t="n">
-        <v>2.513966881725854e-12</v>
+        <v>1.103325389810053e-09</v>
       </c>
       <c r="G62" t="n">
-        <v>2.449952625718577e-14</v>
+        <v>1.01253117760625e-12</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9868304691915983</v>
+        <v>0.9853079325511006</v>
       </c>
       <c r="I62" t="n">
-        <v>2.449952625718577e-14</v>
+        <v>1.012531177606249e-12</v>
       </c>
       <c r="J62" t="n">
-        <v>2.449952625718803e-14</v>
+        <v>0.009121931579451948</v>
       </c>
       <c r="K62" t="n">
-        <v>1.908607741832442e-06</v>
+        <v>1.755459501514617e-08</v>
       </c>
       <c r="L62" t="n">
-        <v>0.01044025601785484</v>
+        <v>4.365646920386494e-09</v>
       </c>
       <c r="M62" t="n">
-        <v>2.449952625718573e-14</v>
+        <v>1.012531177606248e-12</v>
       </c>
       <c r="N62" t="n">
-        <v>9.239100109310394e-06</v>
+        <v>1.860281741368502e-10</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0007226486356544469</v>
+        <v>0.005565063119089025</v>
       </c>
       <c r="P62" t="n">
-        <v>0.9868304691915983</v>
+        <v>0.9853079325511006</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -4311,53 +4311,53 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>RUG824.fasta</t>
+          <t>RUG842.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.310529135328709e-06</v>
+        <v>2.220394540504382e-14</v>
       </c>
       <c r="C63" t="n">
-        <v>2.730378994877017e-06</v>
+        <v>9.976425438763109e-10</v>
       </c>
       <c r="D63" t="n">
-        <v>8.628582674643857e-09</v>
+        <v>3.759450259694458e-14</v>
       </c>
       <c r="E63" t="n">
-        <v>1.012531177606247e-12</v>
+        <v>2.220394540504382e-14</v>
       </c>
       <c r="F63" t="n">
-        <v>1.103325389810053e-09</v>
+        <v>1.658413227680822e-08</v>
       </c>
       <c r="G63" t="n">
-        <v>1.01253117760625e-12</v>
+        <v>2.220394540504382e-14</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9853079325511006</v>
+        <v>0.9856616466421784</v>
       </c>
       <c r="I63" t="n">
-        <v>1.012531177606249e-12</v>
+        <v>2.220394540504382e-14</v>
       </c>
       <c r="J63" t="n">
-        <v>0.009121931579451948</v>
+        <v>0.01429904329253443</v>
       </c>
       <c r="K63" t="n">
-        <v>1.755459501514617e-08</v>
+        <v>1.187708336556195e-11</v>
       </c>
       <c r="L63" t="n">
-        <v>4.365646920386494e-09</v>
+        <v>3.288953364816804e-11</v>
       </c>
       <c r="M63" t="n">
-        <v>1.012531177606248e-12</v>
+        <v>2.220394540504382e-14</v>
       </c>
       <c r="N63" t="n">
-        <v>1.860281741368502e-10</v>
+        <v>2.837463745752433e-13</v>
       </c>
       <c r="O63" t="n">
-        <v>0.005565063119089025</v>
+        <v>3.929243831340153e-05</v>
       </c>
       <c r="P63" t="n">
-        <v>0.9853079325511006</v>
+        <v>0.9856616466421784</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -4373,53 +4373,53 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>RUG842.fasta</t>
+          <t>RUG847.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.220394540504382e-14</v>
+        <v>9.318800062017511e-06</v>
       </c>
       <c r="C64" t="n">
-        <v>9.976425438763109e-10</v>
+        <v>2.335951676383566e-08</v>
       </c>
       <c r="D64" t="n">
-        <v>3.759450259694458e-14</v>
+        <v>4.99745772170914e-06</v>
       </c>
       <c r="E64" t="n">
-        <v>2.220394540504382e-14</v>
+        <v>2.220123449841489e-14</v>
       </c>
       <c r="F64" t="n">
-        <v>1.658413227680822e-08</v>
+        <v>1.057268232504417e-08</v>
       </c>
       <c r="G64" t="n">
-        <v>2.220394540504382e-14</v>
+        <v>2.220123449841489e-14</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9856616466421784</v>
+        <v>0.9960088663937582</v>
       </c>
       <c r="I64" t="n">
-        <v>2.220394540504382e-14</v>
+        <v>2.220123449841489e-14</v>
       </c>
       <c r="J64" t="n">
-        <v>0.01429904329253443</v>
+        <v>9.292247944006571e-10</v>
       </c>
       <c r="K64" t="n">
-        <v>1.187708336556195e-11</v>
+        <v>0.0006956842975840571</v>
       </c>
       <c r="L64" t="n">
-        <v>3.288953364816804e-11</v>
+        <v>6.166371365640679e-06</v>
       </c>
       <c r="M64" t="n">
-        <v>2.220394540504382e-14</v>
+        <v>2.220123449841489e-14</v>
       </c>
       <c r="N64" t="n">
-        <v>2.837463745752433e-13</v>
+        <v>0.0007881118989741431</v>
       </c>
       <c r="O64" t="n">
-        <v>3.929243831340153e-05</v>
+        <v>0.002486819919021532</v>
       </c>
       <c r="P64" t="n">
-        <v>0.9856616466421784</v>
+        <v>0.9960088663937582</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -4435,53 +4435,53 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>RUG847.fasta</t>
+          <t>hRUG851.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.318800062017511e-06</v>
+        <v>7.227785377248063e-08</v>
       </c>
       <c r="C65" t="n">
-        <v>2.335951676383566e-08</v>
+        <v>7.614653478600574e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>4.99745772170914e-06</v>
+        <v>3.941679332617886e-13</v>
       </c>
       <c r="E65" t="n">
-        <v>2.220123449841489e-14</v>
+        <v>2.221476089462009e-14</v>
       </c>
       <c r="F65" t="n">
-        <v>1.057268232504417e-08</v>
+        <v>2.225340603430753e-13</v>
       </c>
       <c r="G65" t="n">
-        <v>2.220123449841489e-14</v>
+        <v>2.221476089462009e-14</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9960088663937582</v>
+        <v>0.9923436548480359</v>
       </c>
       <c r="I65" t="n">
-        <v>2.220123449841489e-14</v>
+        <v>2.221476089462009e-14</v>
       </c>
       <c r="J65" t="n">
-        <v>9.292247944006571e-10</v>
+        <v>0.007473938979158382</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0006956842975840571</v>
+        <v>3.567188657283268e-05</v>
       </c>
       <c r="L65" t="n">
-        <v>6.166371365640679e-06</v>
+        <v>8.82374481251749e-10</v>
       </c>
       <c r="M65" t="n">
-        <v>2.220123449841489e-14</v>
+        <v>2.221476089462008e-14</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0007881118989741431</v>
+        <v>9.998084645161145e-05</v>
       </c>
       <c r="O65" t="n">
-        <v>0.002486819919021532</v>
+        <v>3.906562536885344e-05</v>
       </c>
       <c r="P65" t="n">
-        <v>0.9960088663937582</v>
+        <v>0.9923436548480359</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -4497,53 +4497,53 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>hRUG851.fasta</t>
+          <t>hRUG859.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>7.227785377248063e-08</v>
+        <v>4.596070532453844e-07</v>
       </c>
       <c r="C66" t="n">
-        <v>7.614653478600574e-06</v>
+        <v>2.569830929249684e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>3.941679332617886e-13</v>
+        <v>3.349308731306183e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>2.221476089462009e-14</v>
+        <v>2.220113575609836e-14</v>
       </c>
       <c r="F66" t="n">
-        <v>2.225340603430753e-13</v>
+        <v>5.433897234133714e-07</v>
       </c>
       <c r="G66" t="n">
-        <v>2.221476089462009e-14</v>
+        <v>2.220113575609836e-14</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9923436548480359</v>
+        <v>0.9922418048193495</v>
       </c>
       <c r="I66" t="n">
-        <v>2.221476089462009e-14</v>
+        <v>2.220113575609836e-14</v>
       </c>
       <c r="J66" t="n">
-        <v>0.007473938979158382</v>
+        <v>1.214507091427686e-05</v>
       </c>
       <c r="K66" t="n">
-        <v>3.567188657283268e-05</v>
+        <v>0.0003642435636806606</v>
       </c>
       <c r="L66" t="n">
-        <v>8.82374481251749e-10</v>
+        <v>0.004531815524556004</v>
       </c>
       <c r="M66" t="n">
-        <v>2.221476089462008e-14</v>
+        <v>2.220113575609836e-14</v>
       </c>
       <c r="N66" t="n">
-        <v>9.998084645161145e-05</v>
+        <v>3.235200350485324e-08</v>
       </c>
       <c r="O66" t="n">
-        <v>3.906562536885344e-05</v>
+        <v>0.002843036532969957</v>
       </c>
       <c r="P66" t="n">
-        <v>0.9923436548480359</v>
+        <v>0.9922418048193495</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -4559,53 +4559,53 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>hRUG859.fasta</t>
+          <t>hRUG861.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.596070532453844e-07</v>
+        <v>3.614013307697499e-14</v>
       </c>
       <c r="C67" t="n">
-        <v>2.569830929249684e-06</v>
+        <v>3.614013307697499e-14</v>
       </c>
       <c r="D67" t="n">
-        <v>3.349308731306183e-06</v>
+        <v>2.890063960689342e-13</v>
       </c>
       <c r="E67" t="n">
-        <v>2.220113575609836e-14</v>
+        <v>3.614013307697508e-14</v>
       </c>
       <c r="F67" t="n">
-        <v>5.433897234133714e-07</v>
+        <v>9.029742782544709e-08</v>
       </c>
       <c r="G67" t="n">
-        <v>2.220113575609836e-14</v>
+        <v>3.614013307697496e-14</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9922418048193495</v>
+        <v>0.9998469435395709</v>
       </c>
       <c r="I67" t="n">
-        <v>2.220113575609836e-14</v>
+        <v>3.614013307697506e-14</v>
       </c>
       <c r="J67" t="n">
-        <v>1.214507091427686e-05</v>
+        <v>1.618654900390878e-07</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0003642435636806606</v>
+        <v>3.614013307697517e-14</v>
       </c>
       <c r="L67" t="n">
-        <v>0.004531815524556004</v>
+        <v>1.046872137614989e-11</v>
       </c>
       <c r="M67" t="n">
-        <v>2.220113575609836e-14</v>
+        <v>3.614013307697522e-14</v>
       </c>
       <c r="N67" t="n">
-        <v>3.235200350485324e-08</v>
+        <v>3.61401330769752e-14</v>
       </c>
       <c r="O67" t="n">
-        <v>0.002843036532969957</v>
+        <v>0.0001528042864645514</v>
       </c>
       <c r="P67" t="n">
-        <v>0.9922418048193495</v>
+        <v>0.9998469435395709</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -4621,53 +4621,53 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>hRUG861.fasta</t>
+          <t>hRUG871.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.614013307697499e-14</v>
+        <v>6.349965614300555e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>3.614013307697499e-14</v>
+        <v>2.441379804497479e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>2.890063960689342e-13</v>
+        <v>2.179623564260545e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>3.614013307697508e-14</v>
+        <v>2.220073662740104e-14</v>
       </c>
       <c r="F68" t="n">
-        <v>9.029742782544709e-08</v>
+        <v>1.395283105986997e-10</v>
       </c>
       <c r="G68" t="n">
-        <v>3.614013307697496e-14</v>
+        <v>2.220073662740104e-14</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9998469435395709</v>
+        <v>0.9962416668228059</v>
       </c>
       <c r="I68" t="n">
-        <v>3.614013307697506e-14</v>
+        <v>2.220073662740104e-14</v>
       </c>
       <c r="J68" t="n">
-        <v>1.618654900390878e-07</v>
+        <v>3.091767624628778e-05</v>
       </c>
       <c r="K68" t="n">
-        <v>3.614013307697517e-14</v>
+        <v>0.0007260093743532078</v>
       </c>
       <c r="L68" t="n">
-        <v>1.046872137614989e-11</v>
+        <v>1.000623574151327e-07</v>
       </c>
       <c r="M68" t="n">
-        <v>3.614013307697522e-14</v>
+        <v>2.220073662740104e-14</v>
       </c>
       <c r="N68" t="n">
-        <v>3.61401330769752e-14</v>
+        <v>0.001416950017991627</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0001528042864645514</v>
+        <v>0.001496618635038199</v>
       </c>
       <c r="P68" t="n">
-        <v>0.9998469435395709</v>
+        <v>0.9962416668228059</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -4683,53 +4683,53 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>hRUG869.fasta</t>
+          <t>hRUG875.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.378311420589858e-14</v>
+        <v>4.10202248415822e-09</v>
       </c>
       <c r="C69" t="n">
-        <v>7.738981728139188e-07</v>
+        <v>3.032907070925824e-07</v>
       </c>
       <c r="D69" t="n">
-        <v>4.689812905126804e-12</v>
+        <v>4.585018157305858e-12</v>
       </c>
       <c r="E69" t="n">
-        <v>4.378311420574267e-14</v>
+        <v>2.226089993982231e-14</v>
       </c>
       <c r="F69" t="n">
-        <v>6.50733252455341e-09</v>
+        <v>2.088962895827267e-11</v>
       </c>
       <c r="G69" t="n">
-        <v>4.378311420574281e-14</v>
+        <v>2.226089993982231e-14</v>
       </c>
       <c r="H69" t="n">
-        <v>0.999590871020286</v>
+        <v>0.9999737658545527</v>
       </c>
       <c r="I69" t="n">
-        <v>4.378311420574274e-14</v>
+        <v>2.226089993982231e-14</v>
       </c>
       <c r="J69" t="n">
-        <v>1.376210589511372e-05</v>
+        <v>6.866724318067489e-06</v>
       </c>
       <c r="K69" t="n">
-        <v>2.803704696635185e-08</v>
+        <v>3.935363148113685e-09</v>
       </c>
       <c r="L69" t="n">
-        <v>2.385216605407616e-08</v>
+        <v>1.473283889462529e-11</v>
       </c>
       <c r="M69" t="n">
-        <v>4.378311420574255e-14</v>
+        <v>2.226089993982231e-14</v>
       </c>
       <c r="N69" t="n">
-        <v>3.025873150632191e-08</v>
+        <v>5.849837983094445e-11</v>
       </c>
       <c r="O69" t="n">
-        <v>0.0003945043154603024</v>
+        <v>1.905599424172715e-05</v>
       </c>
       <c r="P69" t="n">
-        <v>0.999590871020286</v>
+        <v>0.9999737658545527</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -4745,53 +4745,53 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>hRUG871.fasta</t>
+          <t>hRUG884.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6.349965614300555e-05</v>
+        <v>7.04425836197217e-08</v>
       </c>
       <c r="C70" t="n">
-        <v>2.441379804497479e-06</v>
+        <v>1.02600214734501e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>2.179623564260545e-05</v>
+        <v>2.463611001234716e-10</v>
       </c>
       <c r="E70" t="n">
-        <v>2.220073662740104e-14</v>
+        <v>6.869904049804095e-13</v>
       </c>
       <c r="F70" t="n">
-        <v>1.395283105986997e-10</v>
+        <v>6.021236593539788e-09</v>
       </c>
       <c r="G70" t="n">
-        <v>2.220073662740104e-14</v>
+        <v>6.869904049804075e-13</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9962416668228059</v>
+        <v>0.9950364081665269</v>
       </c>
       <c r="I70" t="n">
-        <v>2.220073662740104e-14</v>
+        <v>6.869904049804067e-13</v>
       </c>
       <c r="J70" t="n">
-        <v>3.091767624628778e-05</v>
+        <v>0.003790935600241311</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0007260093743532078</v>
+        <v>1.443103539809523e-08</v>
       </c>
       <c r="L70" t="n">
-        <v>1.000623574151327e-07</v>
+        <v>3.191590907933489e-10</v>
       </c>
       <c r="M70" t="n">
-        <v>2.220073662740104e-14</v>
+        <v>6.869904049806134e-13</v>
       </c>
       <c r="N70" t="n">
-        <v>0.001416950017991627</v>
+        <v>1.493633599316135e-10</v>
       </c>
       <c r="O70" t="n">
-        <v>0.001496618635038199</v>
+        <v>0.001171538618597223</v>
       </c>
       <c r="P70" t="n">
-        <v>0.9962416668228059</v>
+        <v>0.9950364081665269</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -4807,53 +4807,53 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>hRUG877.fasta</t>
+          <t>hRUG892.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7.322548873252542e-05</v>
+        <v>7.280335556255334e-08</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0001356116444184304</v>
+        <v>4.461218511012634e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>3.541365027338406e-10</v>
+        <v>6.385470152058383e-07</v>
       </c>
       <c r="E71" t="n">
-        <v>3.668336548283304e-14</v>
+        <v>2.225312464300322e-14</v>
       </c>
       <c r="F71" t="n">
-        <v>3.668336548283295e-14</v>
+        <v>6.417020318408309e-11</v>
       </c>
       <c r="G71" t="n">
-        <v>3.668336548283313e-14</v>
+        <v>2.225312464300322e-14</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9969451686486911</v>
+        <v>0.9989696553546276</v>
       </c>
       <c r="I71" t="n">
-        <v>3.668336548283319e-14</v>
+        <v>2.225312464300322e-14</v>
       </c>
       <c r="J71" t="n">
-        <v>3.135363563304351e-06</v>
+        <v>1.112897871552209e-05</v>
       </c>
       <c r="K71" t="n">
-        <v>0.002303550800075943</v>
+        <v>6.526906666398755e-05</v>
       </c>
       <c r="L71" t="n">
-        <v>2.206687702625682e-08</v>
+        <v>2.176036363834672e-07</v>
       </c>
       <c r="M71" t="n">
-        <v>3.668336548283322e-14</v>
+        <v>2.225312464300322e-14</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0005188194034808576</v>
+        <v>0.0006278551888149151</v>
       </c>
       <c r="O71" t="n">
-        <v>2.046622984110477e-05</v>
+        <v>0.0002805502078014749</v>
       </c>
       <c r="P71" t="n">
-        <v>0.9969451686486911</v>
+        <v>0.9989696553546276</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -4869,53 +4869,53 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>hRUG880.fasta</t>
+          <t>hRUG896.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9.969278256996811e-09</v>
+        <v>4.812506984723597e-06</v>
       </c>
       <c r="C72" t="n">
-        <v>2.264743331104968e-06</v>
+        <v>0.0003120129870709054</v>
       </c>
       <c r="D72" t="n">
-        <v>1.96998146892882e-10</v>
+        <v>4.558294210565995e-11</v>
       </c>
       <c r="E72" t="n">
-        <v>2.221969171715173e-14</v>
+        <v>1.182297010898479e-13</v>
       </c>
       <c r="F72" t="n">
-        <v>1.197780446612484e-13</v>
+        <v>1.190050434122577e-11</v>
       </c>
       <c r="G72" t="n">
-        <v>2.221969171715173e-14</v>
+        <v>1.18229701089847e-13</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5145653877931927</v>
+        <v>0.9966343211151686</v>
       </c>
       <c r="I72" t="n">
-        <v>2.221969171715173e-14</v>
+        <v>1.18229701089847e-13</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4824294752100944</v>
+        <v>0.002548309858929425</v>
       </c>
       <c r="K72" t="n">
-        <v>0.000145613869641975</v>
+        <v>7.649284926619388e-05</v>
       </c>
       <c r="L72" t="n">
-        <v>4.945102151284321e-08</v>
+        <v>4.537887392408736e-09</v>
       </c>
       <c r="M72" t="n">
-        <v>2.221969171715173e-14</v>
+        <v>1.182297010898473e-13</v>
       </c>
       <c r="N72" t="n">
-        <v>0.002818605934203715</v>
+        <v>0.0003320859491839795</v>
       </c>
       <c r="O72" t="n">
-        <v>3.859283202955417e-05</v>
+        <v>9.196013755256555e-05</v>
       </c>
       <c r="P72" t="n">
-        <v>0.5145653877931927</v>
+        <v>0.9966343211151686</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -4924,60 +4924,60 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>f__Lachnospiraceae(reject)</t>
+          <t>f__Lachnospiraceae</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>hRUG884.fasta</t>
+          <t>hRUG899.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7.04425836197217e-08</v>
+        <v>9.252195437257725e-09</v>
       </c>
       <c r="C73" t="n">
-        <v>1.02600214734501e-06</v>
+        <v>4.188131977360756e-07</v>
       </c>
       <c r="D73" t="n">
-        <v>2.463611001234716e-10</v>
+        <v>2.302523882432109e-14</v>
       </c>
       <c r="E73" t="n">
-        <v>6.869904049804095e-13</v>
+        <v>2.220065631701491e-14</v>
       </c>
       <c r="F73" t="n">
-        <v>6.021236593539788e-09</v>
+        <v>2.030835065933274e-13</v>
       </c>
       <c r="G73" t="n">
-        <v>6.869904049804075e-13</v>
+        <v>2.220065631701491e-14</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9950364081665269</v>
+        <v>0.971066564639101</v>
       </c>
       <c r="I73" t="n">
-        <v>6.869904049804067e-13</v>
+        <v>2.220065631701491e-14</v>
       </c>
       <c r="J73" t="n">
-        <v>0.003790935600241311</v>
+        <v>0.02892951388904468</v>
       </c>
       <c r="K73" t="n">
-        <v>1.443103539809523e-08</v>
+        <v>3.118903565566054e-08</v>
       </c>
       <c r="L73" t="n">
-        <v>3.191590907933489e-10</v>
+        <v>6.933544649051576e-11</v>
       </c>
       <c r="M73" t="n">
-        <v>6.869904049806134e-13</v>
+        <v>2.220065631701491e-14</v>
       </c>
       <c r="N73" t="n">
-        <v>1.493633599316135e-10</v>
+        <v>3.384919903470901e-09</v>
       </c>
       <c r="O73" t="n">
-        <v>0.001171538618597223</v>
+        <v>3.458762855281028e-06</v>
       </c>
       <c r="P73" t="n">
-        <v>0.9950364081665269</v>
+        <v>0.971066564639101</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -4993,53 +4993,53 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>hRUG892.fasta</t>
+          <t>hRUG904.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>7.280335556255334e-08</v>
+        <v>1.135621053004948e-06</v>
       </c>
       <c r="C74" t="n">
-        <v>4.461218511012634e-05</v>
+        <v>9.089515266681275e-07</v>
       </c>
       <c r="D74" t="n">
-        <v>6.385470152058383e-07</v>
+        <v>2.457519777802215e-07</v>
       </c>
       <c r="E74" t="n">
-        <v>2.225312464300322e-14</v>
+        <v>2.22018799945699e-14</v>
       </c>
       <c r="F74" t="n">
-        <v>6.417020318408309e-11</v>
+        <v>5.60309453295441e-08</v>
       </c>
       <c r="G74" t="n">
-        <v>2.225312464300322e-14</v>
+        <v>2.22018799945699e-14</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9989696553546276</v>
+        <v>0.9922599185696582</v>
       </c>
       <c r="I74" t="n">
-        <v>2.225312464300322e-14</v>
+        <v>2.22018799945699e-14</v>
       </c>
       <c r="J74" t="n">
-        <v>1.112897871552209e-05</v>
+        <v>0.0003951604819574875</v>
       </c>
       <c r="K74" t="n">
-        <v>6.526906666398755e-05</v>
+        <v>0.004826736900811885</v>
       </c>
       <c r="L74" t="n">
-        <v>2.176036363834672e-07</v>
+        <v>2.160188563808332e-05</v>
       </c>
       <c r="M74" t="n">
-        <v>2.225312464300322e-14</v>
+        <v>2.22018799945699e-14</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0006278551888149151</v>
+        <v>2.788273651559679e-05</v>
       </c>
       <c r="O74" t="n">
-        <v>0.0002805502078014749</v>
+        <v>0.002466353069827258</v>
       </c>
       <c r="P74" t="n">
-        <v>0.9989696553546276</v>
+        <v>0.9922599185696582</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -5047,812 +5047,6 @@
         </is>
       </c>
       <c r="R74" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>hRUG899.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>9.252195437257725e-09</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.188131977360756e-07</v>
-      </c>
-      <c r="D75" t="n">
-        <v>2.302523882432109e-14</v>
-      </c>
-      <c r="E75" t="n">
-        <v>2.220065631701491e-14</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2.030835065933274e-13</v>
-      </c>
-      <c r="G75" t="n">
-        <v>2.220065631701491e-14</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.971066564639101</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2.220065631701491e-14</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.02892951388904468</v>
-      </c>
-      <c r="K75" t="n">
-        <v>3.118903565566054e-08</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6.933544649051576e-11</v>
-      </c>
-      <c r="M75" t="n">
-        <v>2.220065631701491e-14</v>
-      </c>
-      <c r="N75" t="n">
-        <v>3.384919903470901e-09</v>
-      </c>
-      <c r="O75" t="n">
-        <v>3.458762855281028e-06</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0.971066564639101</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>hRUG904.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>1.135621053004948e-06</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9.089515266681275e-07</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2.457519777802215e-07</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2.22018799945699e-14</v>
-      </c>
-      <c r="F76" t="n">
-        <v>5.60309453295441e-08</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2.22018799945699e-14</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.9922599185696582</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2.22018799945699e-14</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.0003951604819574875</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.004826736900811885</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.160188563808332e-05</v>
-      </c>
-      <c r="M76" t="n">
-        <v>2.22018799945699e-14</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2.788273651559679e-05</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.002466353069827258</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0.9922599185696582</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>hRUG851.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>6.742621547882207e-09</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1.844328213447227e-06</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2.463529172245634e-13</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2.220055313030163e-14</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3.15343320577876e-12</v>
-      </c>
-      <c r="G77" t="n">
-        <v>2.220055313030163e-14</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.9849572938210149</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.220055313030163e-14</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.01500929766224973</v>
-      </c>
-      <c r="K77" t="n">
-        <v>3.998750252427122e-07</v>
-      </c>
-      <c r="L77" t="n">
-        <v>1.587761352037809e-09</v>
-      </c>
-      <c r="M77" t="n">
-        <v>2.220055313030163e-14</v>
-      </c>
-      <c r="N77" t="n">
-        <v>3.53697242282382e-07</v>
-      </c>
-      <c r="O77" t="n">
-        <v>3.080228238305329e-05</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0.9849572938210149</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>hRUG859.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>1.147459393054117e-06</v>
-      </c>
-      <c r="C78" t="n">
-        <v>3.722983385479568e-06</v>
-      </c>
-      <c r="D78" t="n">
-        <v>3.403629950915388e-06</v>
-      </c>
-      <c r="E78" t="n">
-        <v>2.220088543913718e-14</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2.570111035268994e-07</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2.220088543913718e-14</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.991984661572477</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2.220088543913718e-14</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1.534646672262647e-05</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.0005029873604465916</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.003776701844796473</v>
-      </c>
-      <c r="M78" t="n">
-        <v>2.220088543913718e-14</v>
-      </c>
-      <c r="N78" t="n">
-        <v>9.858404310225848e-08</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.003711673087592278</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0.991984661572477</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>hRUG861.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>3.594438366188792e-14</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.594438366188792e-14</v>
-      </c>
-      <c r="D79" t="n">
-        <v>7.901296151572602e-13</v>
-      </c>
-      <c r="E79" t="n">
-        <v>3.594438366188789e-14</v>
-      </c>
-      <c r="F79" t="n">
-        <v>8.755949503476226e-08</v>
-      </c>
-      <c r="G79" t="n">
-        <v>3.594438366188793e-14</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.9997878172924263</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.594438366188795e-14</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.708159674493185e-08</v>
-      </c>
-      <c r="K79" t="n">
-        <v>3.594438366189321e-14</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.805205444009046e-11</v>
-      </c>
-      <c r="M79" t="n">
-        <v>3.59443836618934e-14</v>
-      </c>
-      <c r="N79" t="n">
-        <v>3.594438366189339e-14</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.0002120580373520815</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0.9997878172924263</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>hRUG869.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>4.166663556436539e-14</v>
-      </c>
-      <c r="C80" t="n">
-        <v>4.013544560635656e-07</v>
-      </c>
-      <c r="D80" t="n">
-        <v>3.020429430182541e-12</v>
-      </c>
-      <c r="E80" t="n">
-        <v>4.166663556421748e-14</v>
-      </c>
-      <c r="F80" t="n">
-        <v>4.914806173958758e-09</v>
-      </c>
-      <c r="G80" t="n">
-        <v>4.166663556421738e-14</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.9996754466096319</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.166663556421743e-14</v>
-      </c>
-      <c r="J80" t="n">
-        <v>4.571600612532813e-06</v>
-      </c>
-      <c r="K80" t="n">
-        <v>9.764224240475985e-09</v>
-      </c>
-      <c r="L80" t="n">
-        <v>1.952899524407122e-08</v>
-      </c>
-      <c r="M80" t="n">
-        <v>4.166663556422356e-14</v>
-      </c>
-      <c r="N80" t="n">
-        <v>4.287607907926293e-09</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.000319541936437115</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0.9996754466096319</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>hRUG871.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>8.991372976804477e-05</v>
-      </c>
-      <c r="C81" t="n">
-        <v>4.338229036061679e-06</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3.990659278892421e-05</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.220056246920404e-14</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1.351351693345193e-10</v>
-      </c>
-      <c r="G81" t="n">
-        <v>2.220056246920404e-14</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.9961561938772715</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.220056246920404e-14</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.686698743648978e-05</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.0004967785128654885</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1.531921906250074e-07</v>
-      </c>
-      <c r="M81" t="n">
-        <v>2.220056246920404e-14</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.001391652063903948</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.001794196679514892</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0.9961561938772715</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>hRUG877.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>4.678408083035793e-05</v>
-      </c>
-      <c r="C82" t="n">
-        <v>8.258590166683078e-05</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3.588719405402639e-10</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2.561809874645641e-14</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2.561809874645752e-14</v>
-      </c>
-      <c r="G82" t="n">
-        <v>2.561809874645636e-14</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.9976068871073136</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2.561809874645637e-14</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3.466748950996647e-06</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.001879454159397848</v>
-      </c>
-      <c r="L82" t="n">
-        <v>1.686223876548961e-08</v>
-      </c>
-      <c r="M82" t="n">
-        <v>2.561809874645642e-14</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.0003603492280465988</v>
-      </c>
-      <c r="O82" t="n">
-        <v>2.045555255497068e-05</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0.9976068871073136</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>hRUG880.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1.924977924559775e-08</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3.132117764038688e-06</v>
-      </c>
-      <c r="D83" t="n">
-        <v>6.239155964375236e-10</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2.221847886196002e-14</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1.705991239280049e-13</v>
-      </c>
-      <c r="G83" t="n">
-        <v>2.221847886196002e-14</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.5245936167732961</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2.221847886196002e-14</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.472292978083706</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.0001414446387332164</v>
-      </c>
-      <c r="L83" t="n">
-        <v>8.89564796951917e-08</v>
-      </c>
-      <c r="M83" t="n">
-        <v>2.221847886196002e-14</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.00292384092703774</v>
-      </c>
-      <c r="O83" t="n">
-        <v>4.487862902887139e-05</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0.5245936167732961</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>hRUG884.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1.275926908336995e-06</v>
-      </c>
-      <c r="C84" t="n">
-        <v>6.382159894262296e-06</v>
-      </c>
-      <c r="D84" t="n">
-        <v>6.895767983199904e-09</v>
-      </c>
-      <c r="E84" t="n">
-        <v>3.408907282004761e-12</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2.260780173660383e-08</v>
-      </c>
-      <c r="G84" t="n">
-        <v>3.408907282004751e-12</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.9810393740578852</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.408907282004751e-12</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.01135259008202891</v>
-      </c>
-      <c r="K84" t="n">
-        <v>8.67321998355711e-08</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5.095647825079798e-09</v>
-      </c>
-      <c r="M84" t="n">
-        <v>3.408907282004768e-12</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1.215814689346602e-09</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.007600255212415529</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0.9810393740578852</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>hRUG892.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>5.379720197711087e-07</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4.28862848796124e-05</v>
-      </c>
-      <c r="D85" t="n">
-        <v>4.529450608838432e-06</v>
-      </c>
-      <c r="E85" t="n">
-        <v>2.224851728905449e-14</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2.634236150886582e-10</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2.224851728905449e-14</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.9981434188116998</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2.224851728905449e-14</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.519194902860771e-05</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.0001474534055457556</v>
-      </c>
-      <c r="L85" t="n">
-        <v>7.798957177971375e-07</v>
-      </c>
-      <c r="M85" t="n">
-        <v>2.224851728905449e-14</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.001149018929698441</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.0004961830372889552</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0.9981434188116998</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>hRUG899.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>1.542164387133431e-08</v>
-      </c>
-      <c r="C86" t="n">
-        <v>4.039746841411843e-07</v>
-      </c>
-      <c r="D86" t="n">
-        <v>4.225448596397006e-14</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2.220062946219183e-14</v>
-      </c>
-      <c r="F86" t="n">
-        <v>4.757242884153087e-13</v>
-      </c>
-      <c r="G86" t="n">
-        <v>2.220062946219183e-14</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.975594534712091</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2.220062946219183e-14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.02440039697133052</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2.438688154856047e-08</v>
-      </c>
-      <c r="L86" t="n">
-        <v>8.299891126754681e-11</v>
-      </c>
-      <c r="M86" t="n">
-        <v>2.220062946219183e-14</v>
-      </c>
-      <c r="N86" t="n">
-        <v>1.653166280051236e-09</v>
-      </c>
-      <c r="O86" t="n">
-        <v>4.622796596845369e-06</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0.975594534712091</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>hRUG904.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>2.030928373469742e-06</v>
-      </c>
-      <c r="C87" t="n">
-        <v>4.925594505089081e-06</v>
-      </c>
-      <c r="D87" t="n">
-        <v>4.994649984104242e-07</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2.220162704305842e-14</v>
-      </c>
-      <c r="F87" t="n">
-        <v>3.939193027020243e-08</v>
-      </c>
-      <c r="G87" t="n">
-        <v>2.220162704305842e-14</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.9924107178242125</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2.220162704305842e-14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.0009767707724327879</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.002759999401847203</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.046758040125858e-05</v>
-      </c>
-      <c r="M87" t="n">
-        <v>2.220162704305842e-14</v>
-      </c>
-      <c r="N87" t="n">
-        <v>5.423412334095003e-05</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.00376031491786914</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0.9924107178242125</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>f__Lachnospiraceae</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
         <is>
           <t>f__Lachnospiraceae</t>
         </is>
